--- a/ind_JUNIO.xlsx
+++ b/ind_JUNIO.xlsx
@@ -1011,6 +1011,15 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C10711102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18111102</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17091107</t>
   </si>
   <si>
@@ -1029,6 +1038,18 @@
     <t xml:space="preserve">C23951101</t>
   </si>
   <si>
+    <t xml:space="preserve">C24201101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10201201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10201101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10201102</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10801104</t>
   </si>
   <si>
@@ -1038,49 +1059,28 @@
     <t xml:space="preserve">C10801105</t>
   </si>
   <si>
+    <t xml:space="preserve">C10401202</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10791111</t>
   </si>
   <si>
     <t xml:space="preserve">C10791103</t>
   </si>
   <si>
+    <t xml:space="preserve">C13111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13111102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25121101</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">C10711102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10711101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18111102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C24201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10201201</t>
-  </si>
-  <si>
     <t xml:space="preserve">C30911101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10201102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10401202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13111102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25121101</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>95.3727647227264</v>
+        <v>94.6574559767331</v>
       </c>
     </row>
     <row r="9">
@@ -1505,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>104.124731225269</v>
+        <v>104.108936031145</v>
       </c>
     </row>
     <row r="13">
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>115.653753824302</v>
+        <v>104.730756847233</v>
       </c>
     </row>
     <row r="14">
@@ -1521,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>96.1484219163715</v>
+        <v>96.1483441268162</v>
       </c>
     </row>
     <row r="15">
@@ -1601,7 +1601,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>97.8200804929391</v>
+        <v>100.433335953581</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>97.2069541280636</v>
+        <v>100.91425267614</v>
       </c>
     </row>
     <row r="31">
@@ -1657,7 +1657,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>105.076000773431</v>
+        <v>100.40099714582</v>
       </c>
     </row>
     <row r="32">
@@ -1721,7 +1721,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>92.2980533244718</v>
+        <v>101.399702157275</v>
       </c>
     </row>
     <row r="40">
@@ -1745,7 +1745,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>96.5005674410259</v>
+        <v>96.4309016499241</v>
       </c>
     </row>
     <row r="43">
@@ -1833,7 +1833,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>100.686201151346</v>
+        <v>99.8626659809911</v>
       </c>
     </row>
     <row r="54">
@@ -1857,7 +1857,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>100.894798103494</v>
+        <v>100.893096892076</v>
       </c>
     </row>
     <row r="57">
@@ -1865,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>99.3441735559885</v>
+        <v>99.6989148745393</v>
       </c>
     </row>
     <row r="58">
@@ -1889,7 +1889,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>95.9523062146254</v>
+        <v>99.7180909802218</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>102.728317137137</v>
+        <v>103.297148238156</v>
       </c>
     </row>
     <row r="62">
@@ -1905,7 +1905,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>100.567655840222</v>
+        <v>107.661964973581</v>
       </c>
     </row>
     <row r="63">
@@ -1921,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="65">
@@ -1929,7 +1929,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>91.4594213545106</v>
+        <v>100.486267222428</v>
       </c>
     </row>
     <row r="66">
@@ -1961,7 +1961,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>106.272489091425</v>
+        <v>107.326739601976</v>
       </c>
     </row>
     <row r="70">
@@ -1985,7 +1985,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>99.2894094342145</v>
+        <v>99.2533001505045</v>
       </c>
     </row>
     <row r="73">
@@ -2001,7 +2001,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="75">
@@ -2049,7 +2049,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>101.252403909288</v>
+        <v>101.237141833338</v>
       </c>
     </row>
     <row r="81">
@@ -2153,7 +2153,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>100.161637271753</v>
+        <v>100.152077889436</v>
       </c>
     </row>
   </sheetData>
@@ -2245,13 +2245,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.8272161821111</v>
+        <v>66.5917456282206</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.956160748635</v>
+        <v>101.59691080504</v>
       </c>
     </row>
     <row r="7">
@@ -2259,13 +2259,13 @@
         <v>102</v>
       </c>
       <c r="B7" t="n">
-        <v>178.768338246475</v>
+        <v>178.760714613825</v>
       </c>
       <c r="C7" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D7" t="n">
-        <v>101.12748796854</v>
+        <v>101.123175354647</v>
       </c>
     </row>
     <row r="8">
@@ -2273,13 +2273,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>483.399928503041</v>
+        <v>448.427610583375</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>111.154181614546</v>
+        <v>103.112559867596</v>
       </c>
     </row>
     <row r="9">
@@ -2357,13 +2357,13 @@
         <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>309.598255931286</v>
+        <v>311.486722171267</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>99.4937499131718</v>
+        <v>100.100635075477</v>
       </c>
     </row>
     <row r="15">
@@ -2441,13 +2441,13 @@
         <v>115</v>
       </c>
       <c r="B20" t="n">
-        <v>346.50350217693</v>
+        <v>359.71852307792</v>
       </c>
       <c r="C20" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D20" t="n">
-        <v>97.2069541280636</v>
+        <v>100.91425267614</v>
       </c>
     </row>
     <row r="21">
@@ -2455,13 +2455,13 @@
         <v>116</v>
       </c>
       <c r="B21" t="n">
-        <v>301.924330017071</v>
+        <v>288.491221336647</v>
       </c>
       <c r="C21" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D21" t="n">
-        <v>105.076000773431</v>
+        <v>100.40099714582</v>
       </c>
     </row>
     <row r="22">
@@ -2553,13 +2553,13 @@
         <v>123</v>
       </c>
       <c r="B28" t="n">
-        <v>79.7506757961029</v>
+        <v>87.6150089984853</v>
       </c>
       <c r="C28" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D28" t="n">
-        <v>92.2980533244718</v>
+        <v>101.399702157275</v>
       </c>
     </row>
     <row r="29">
@@ -2595,13 +2595,13 @@
         <v>126</v>
       </c>
       <c r="B31" t="n">
-        <v>359.023045225907</v>
+        <v>358.763858931642</v>
       </c>
       <c r="C31" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D31" t="n">
-        <v>96.5005674410259</v>
+        <v>96.4309016499241</v>
       </c>
     </row>
     <row r="32">
@@ -2721,13 +2721,13 @@
         <v>135</v>
       </c>
       <c r="B40" t="n">
-        <v>274.99959384862</v>
+        <v>272.75031008602</v>
       </c>
       <c r="C40" t="n">
         <v>2.73125404180515</v>
       </c>
       <c r="D40" t="n">
-        <v>100.686201151346</v>
+        <v>99.8626659809911</v>
       </c>
     </row>
     <row r="41">
@@ -2763,13 +2763,13 @@
         <v>138</v>
       </c>
       <c r="B43" t="n">
-        <v>159.887982563789</v>
+        <v>159.885286654122</v>
       </c>
       <c r="C43" t="n">
         <v>1.58469996044575</v>
       </c>
       <c r="D43" t="n">
-        <v>100.894798103494</v>
+        <v>100.893096892076</v>
       </c>
     </row>
     <row r="44">
@@ -2777,13 +2777,13 @@
         <v>139</v>
       </c>
       <c r="B44" t="n">
-        <v>241.75186733389</v>
+        <v>242.615122551689</v>
       </c>
       <c r="C44" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D44" t="n">
-        <v>99.3441735559885</v>
+        <v>99.6989148745393</v>
       </c>
     </row>
     <row r="45">
@@ -2819,13 +2819,13 @@
         <v>142</v>
       </c>
       <c r="B47" t="n">
-        <v>237.538353426674</v>
+        <v>246.86088404494</v>
       </c>
       <c r="C47" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D47" t="n">
-        <v>95.9523062146254</v>
+        <v>99.7180909802218</v>
       </c>
     </row>
     <row r="48">
@@ -2833,13 +2833,13 @@
         <v>143</v>
       </c>
       <c r="B48" t="n">
-        <v>147.523930569566</v>
+        <v>148.340805625939</v>
       </c>
       <c r="C48" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D48" t="n">
-        <v>102.728317137137</v>
+        <v>103.297148238156</v>
       </c>
     </row>
     <row r="49">
@@ -2847,13 +2847,13 @@
         <v>144</v>
       </c>
       <c r="B49" t="n">
-        <v>324.600122832818</v>
+        <v>347.498276288447</v>
       </c>
       <c r="C49" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D49" t="n">
-        <v>100.567655840222</v>
+        <v>107.661964973581</v>
       </c>
     </row>
     <row r="50">
@@ -2875,13 +2875,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>70.2221640167015</v>
+        <v>68.9982233799247</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="52">
@@ -2889,13 +2889,13 @@
         <v>147</v>
       </c>
       <c r="B52" t="n">
-        <v>434.983288298234</v>
+        <v>477.194154686979</v>
       </c>
       <c r="C52" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D52" t="n">
-        <v>91.5702429751041</v>
+        <v>100.456237898102</v>
       </c>
     </row>
     <row r="53">
@@ -2917,13 +2917,13 @@
         <v>149</v>
       </c>
       <c r="B54" t="n">
-        <v>86.5128542723836</v>
+        <v>87.235425859886</v>
       </c>
       <c r="C54" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D54" t="n">
-        <v>105.239878388155</v>
+        <v>106.118861594004</v>
       </c>
     </row>
     <row r="55">
@@ -2959,13 +2959,13 @@
         <v>152</v>
       </c>
       <c r="B57" t="n">
-        <v>100.902646644405</v>
+        <v>100.865950663277</v>
       </c>
       <c r="C57" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D57" t="n">
-        <v>99.2894094342145</v>
+        <v>99.2533001505045</v>
       </c>
     </row>
     <row r="58">
@@ -2987,13 +2987,13 @@
         <v>154</v>
       </c>
       <c r="B59" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C59" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D59" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="60">
@@ -3071,13 +3071,13 @@
         <v>160</v>
       </c>
       <c r="B65" t="n">
-        <v>202.302527132341</v>
+        <v>202.272033470811</v>
       </c>
       <c r="C65" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D65" t="n">
-        <v>101.252403909288</v>
+        <v>101.237141833338</v>
       </c>
     </row>
     <row r="66">
@@ -3253,13 +3253,13 @@
         <v>173</v>
       </c>
       <c r="B78" t="n">
-        <v>82.8525913792544</v>
+        <v>82.8446839646134</v>
       </c>
       <c r="C78" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D78" t="n">
-        <v>100.161637271753</v>
+        <v>100.152077889436</v>
       </c>
     </row>
   </sheetData>
@@ -3309,13 +3309,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.8272161821111</v>
+        <v>66.5917456282206</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.956160748635</v>
+        <v>101.59691080504</v>
       </c>
     </row>
     <row r="4">
@@ -3323,13 +3323,13 @@
         <v>177</v>
       </c>
       <c r="B4" t="n">
-        <v>178.768338246475</v>
+        <v>178.760714613825</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>101.12748796854</v>
+        <v>101.123175354647</v>
       </c>
     </row>
     <row r="5">
@@ -3337,13 +3337,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>483.399928503041</v>
+        <v>448.427610583375</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>111.154181614546</v>
+        <v>103.112559867596</v>
       </c>
     </row>
     <row r="6">
@@ -3393,13 +3393,13 @@
         <v>182</v>
       </c>
       <c r="B9" t="n">
-        <v>553.187975469966</v>
+        <v>555.076441709947</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>101.953090867026</v>
+        <v>102.301137062355</v>
       </c>
     </row>
     <row r="10">
@@ -3463,13 +3463,13 @@
         <v>187</v>
       </c>
       <c r="B14" t="n">
-        <v>346.50350217693</v>
+        <v>359.71852307792</v>
       </c>
       <c r="C14" t="n">
         <v>3.56459581811847</v>
       </c>
       <c r="D14" t="n">
-        <v>97.2069541280636</v>
+        <v>100.91425267614</v>
       </c>
     </row>
     <row r="15">
@@ -3477,13 +3477,13 @@
         <v>188</v>
       </c>
       <c r="B15" t="n">
-        <v>301.924330017071</v>
+        <v>288.491221336647</v>
       </c>
       <c r="C15" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D15" t="n">
-        <v>105.076000773431</v>
+        <v>100.40099714582</v>
       </c>
     </row>
     <row r="16">
@@ -3575,13 +3575,13 @@
         <v>195</v>
       </c>
       <c r="B22" t="n">
-        <v>79.7506757961029</v>
+        <v>87.6150089984853</v>
       </c>
       <c r="C22" t="n">
         <v>0.864055881175967</v>
       </c>
       <c r="D22" t="n">
-        <v>92.2980533244718</v>
+        <v>101.399702157275</v>
       </c>
     </row>
     <row r="23">
@@ -3617,13 +3617,13 @@
         <v>198</v>
       </c>
       <c r="B25" t="n">
-        <v>359.023045225907</v>
+        <v>358.763858931642</v>
       </c>
       <c r="C25" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D25" t="n">
-        <v>96.5005674410259</v>
+        <v>96.4309016499241</v>
       </c>
     </row>
     <row r="26">
@@ -3743,13 +3743,13 @@
         <v>207</v>
       </c>
       <c r="B34" t="n">
-        <v>274.99959384862</v>
+        <v>272.75031008602</v>
       </c>
       <c r="C34" t="n">
         <v>2.73125404180515</v>
       </c>
       <c r="D34" t="n">
-        <v>100.686201151346</v>
+        <v>99.8626659809911</v>
       </c>
     </row>
     <row r="35">
@@ -3771,13 +3771,13 @@
         <v>209</v>
       </c>
       <c r="B36" t="n">
-        <v>198.292072426614</v>
+        <v>198.289376516947</v>
       </c>
       <c r="C36" t="n">
         <v>1.968740859074</v>
       </c>
       <c r="D36" t="n">
-        <v>100.720250465001</v>
+        <v>100.718881107701</v>
       </c>
     </row>
     <row r="37">
@@ -3785,13 +3785,13 @@
         <v>210</v>
       </c>
       <c r="B37" t="n">
-        <v>241.75186733389</v>
+        <v>242.615122551689</v>
       </c>
       <c r="C37" t="n">
         <v>2.43347806600498</v>
       </c>
       <c r="D37" t="n">
-        <v>99.3441735559885</v>
+        <v>99.6989148745393</v>
       </c>
     </row>
     <row r="38">
@@ -3827,13 +3827,13 @@
         <v>213</v>
       </c>
       <c r="B40" t="n">
-        <v>237.538353426674</v>
+        <v>246.86088404494</v>
       </c>
       <c r="C40" t="n">
         <v>2.47558774559676</v>
       </c>
       <c r="D40" t="n">
-        <v>95.9523062146254</v>
+        <v>99.7180909802218</v>
       </c>
     </row>
     <row r="41">
@@ -3841,13 +3841,13 @@
         <v>214</v>
       </c>
       <c r="B41" t="n">
-        <v>147.523930569566</v>
+        <v>148.340805625939</v>
       </c>
       <c r="C41" t="n">
         <v>1.4360590602553</v>
       </c>
       <c r="D41" t="n">
-        <v>102.728317137137</v>
+        <v>103.297148238156</v>
       </c>
     </row>
     <row r="42">
@@ -3855,13 +3855,13 @@
         <v>215</v>
       </c>
       <c r="B42" t="n">
-        <v>324.600122832818</v>
+        <v>347.498276288447</v>
       </c>
       <c r="C42" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D42" t="n">
-        <v>100.567655840222</v>
+        <v>107.661964973581</v>
       </c>
     </row>
     <row r="43">
@@ -3883,13 +3883,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>70.2221640167015</v>
+        <v>68.9982233799247</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>96.6995129114446</v>
+        <v>95.0140840291804</v>
       </c>
     </row>
     <row r="45">
@@ -3897,13 +3897,13 @@
         <v>218</v>
       </c>
       <c r="B45" t="n">
-        <v>434.983288298234</v>
+        <v>477.194154686979</v>
       </c>
       <c r="C45" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D45" t="n">
-        <v>91.5702429751041</v>
+        <v>100.456237898102</v>
       </c>
     </row>
     <row r="46">
@@ -3925,13 +3925,13 @@
         <v>220</v>
       </c>
       <c r="B47" t="n">
-        <v>86.5128542723836</v>
+        <v>87.235425859886</v>
       </c>
       <c r="C47" t="n">
         <v>0.822053917178609</v>
       </c>
       <c r="D47" t="n">
-        <v>105.239878388155</v>
+        <v>106.118861594004</v>
       </c>
     </row>
     <row r="48">
@@ -3967,13 +3967,13 @@
         <v>223</v>
       </c>
       <c r="B50" t="n">
-        <v>100.902646644405</v>
+        <v>100.865950663277</v>
       </c>
       <c r="C50" t="n">
         <v>1.0162478276322</v>
       </c>
       <c r="D50" t="n">
-        <v>99.2894094342145</v>
+        <v>99.2533001505045</v>
       </c>
     </row>
     <row r="51">
@@ -3995,13 +3995,13 @@
         <v>225</v>
       </c>
       <c r="B52" t="n">
-        <v>18.0762459239864</v>
+        <v>19.2114822268247</v>
       </c>
       <c r="C52" t="n">
         <v>0.191526725190851</v>
       </c>
       <c r="D52" t="n">
-        <v>94.3797577386337</v>
+        <v>100.307057449455</v>
       </c>
     </row>
     <row r="53">
@@ -4079,13 +4079,13 @@
         <v>231</v>
       </c>
       <c r="B58" t="n">
-        <v>202.302527132341</v>
+        <v>202.272033470811</v>
       </c>
       <c r="C58" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D58" t="n">
-        <v>101.252403909288</v>
+        <v>101.237141833338</v>
       </c>
     </row>
     <row r="59">
@@ -4261,13 +4261,13 @@
         <v>244</v>
       </c>
       <c r="B71" t="n">
-        <v>82.8525913792544</v>
+        <v>82.8446839646134</v>
       </c>
       <c r="C71" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D71" t="n">
-        <v>100.161637271753</v>
+        <v>100.152077889436</v>
       </c>
     </row>
   </sheetData>
@@ -4317,13 +4317,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.8272161821111</v>
+        <v>66.5917456282206</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.956160748635</v>
+        <v>101.59691080504</v>
       </c>
     </row>
     <row r="4">
@@ -4331,13 +4331,13 @@
         <v>248</v>
       </c>
       <c r="B4" t="n">
-        <v>178.768338246475</v>
+        <v>178.760714613825</v>
       </c>
       <c r="C4" t="n">
         <v>1.76775218921772</v>
       </c>
       <c r="D4" t="n">
-        <v>101.12748796854</v>
+        <v>101.123175354647</v>
       </c>
     </row>
     <row r="5">
@@ -4345,13 +4345,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>483.399928503041</v>
+        <v>448.427610583375</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>111.154181614546</v>
+        <v>103.112559867596</v>
       </c>
     </row>
     <row r="6">
@@ -4387,13 +4387,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1283.79531341635</v>
+        <v>1298.89880055732</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>100.121405752359</v>
+        <v>101.299305646924</v>
       </c>
     </row>
     <row r="9">
@@ -4401,13 +4401,13 @@
         <v>253</v>
       </c>
       <c r="B9" t="n">
-        <v>301.924330017071</v>
+        <v>288.491221336647</v>
       </c>
       <c r="C9" t="n">
         <v>2.87339000147229</v>
       </c>
       <c r="D9" t="n">
-        <v>105.076000773431</v>
+        <v>100.40099714582</v>
       </c>
     </row>
     <row r="10">
@@ -4443,13 +4443,13 @@
         <v>256</v>
       </c>
       <c r="B12" t="n">
-        <v>118.214532887281</v>
+        <v>126.078866089664</v>
       </c>
       <c r="C12" t="n">
         <v>1.24869445208775</v>
       </c>
       <c r="D12" t="n">
-        <v>94.6705038127084</v>
+        <v>100.968548293673</v>
       </c>
     </row>
     <row r="13">
@@ -4471,13 +4471,13 @@
         <v>258</v>
       </c>
       <c r="B14" t="n">
-        <v>359.023045225907</v>
+        <v>358.763858931642</v>
       </c>
       <c r="C14" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D14" t="n">
-        <v>96.5005674410259</v>
+        <v>96.4309016499241</v>
       </c>
     </row>
     <row r="15">
@@ -4541,13 +4541,13 @@
         <v>263</v>
       </c>
       <c r="B19" t="n">
-        <v>414.308291331511</v>
+        <v>412.05900756891</v>
       </c>
       <c r="C19" t="n">
         <v>4.12715381328589</v>
       </c>
       <c r="D19" t="n">
-        <v>100.385958477679</v>
+        <v>99.8409621280491</v>
       </c>
     </row>
     <row r="20">
@@ -4569,13 +4569,13 @@
         <v>265</v>
       </c>
       <c r="B21" t="n">
-        <v>440.043939760504</v>
+        <v>440.904499068636</v>
       </c>
       <c r="C21" t="n">
         <v>4.40221892507898</v>
       </c>
       <c r="D21" t="n">
-        <v>99.9595765793517</v>
+        <v>100.155059657949</v>
       </c>
     </row>
     <row r="22">
@@ -4583,13 +4583,13 @@
         <v>266</v>
       </c>
       <c r="B22" t="n">
-        <v>489.086276126382</v>
+        <v>499.225681801021</v>
       </c>
       <c r="C22" t="n">
         <v>4.98260867915758</v>
       </c>
       <c r="D22" t="n">
-        <v>98.158677034431</v>
+        <v>100.19363629524</v>
       </c>
     </row>
     <row r="23">
@@ -4597,13 +4597,13 @@
         <v>267</v>
       </c>
       <c r="B23" t="n">
-        <v>324.600122832818</v>
+        <v>347.498276288447</v>
       </c>
       <c r="C23" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D23" t="n">
-        <v>100.567655840222</v>
+        <v>107.661964973581</v>
       </c>
     </row>
     <row r="24">
@@ -4611,13 +4611,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>85.8029884321592</v>
+        <v>84.5790477953823</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>97.6081654722841</v>
+        <v>96.2158293498981</v>
       </c>
     </row>
     <row r="25">
@@ -4625,13 +4625,13 @@
         <v>269</v>
       </c>
       <c r="B25" t="n">
-        <v>434.983288298234</v>
+        <v>477.194154686979</v>
       </c>
       <c r="C25" t="n">
         <v>4.75026901934175</v>
       </c>
       <c r="D25" t="n">
-        <v>91.5702429751041</v>
+        <v>100.456237898102</v>
       </c>
     </row>
     <row r="26">
@@ -4653,13 +4653,13 @@
         <v>271</v>
       </c>
       <c r="B27" t="n">
-        <v>434.284695787637</v>
+        <v>436.10580769685</v>
       </c>
       <c r="C27" t="n">
         <v>4.31627944598932</v>
       </c>
       <c r="D27" t="n">
-        <v>100.615518810112</v>
+        <v>101.037435864371</v>
       </c>
     </row>
     <row r="28">
@@ -4723,13 +4723,13 @@
         <v>276</v>
       </c>
       <c r="B32" t="n">
-        <v>202.302527132341</v>
+        <v>202.272033470811</v>
       </c>
       <c r="C32" t="n">
         <v>1.99800221349396</v>
       </c>
       <c r="D32" t="n">
-        <v>101.252403909288</v>
+        <v>101.237141833338</v>
       </c>
     </row>
     <row r="33">
@@ -4891,13 +4891,13 @@
         <v>288</v>
       </c>
       <c r="B44" t="n">
-        <v>82.8525913792544</v>
+        <v>82.8446839646134</v>
       </c>
       <c r="C44" t="n">
         <v>0.827188868273618</v>
       </c>
       <c r="D44" t="n">
-        <v>100.161637271753</v>
+        <v>100.152077889436</v>
       </c>
     </row>
   </sheetData>
@@ -4933,13 +4933,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3409.06241348853</v>
+        <v>3375.51737984287</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>101.950235709904</v>
+        <v>100.947049592355</v>
       </c>
     </row>
     <row r="3">
@@ -4975,13 +4975,13 @@
         <v>293</v>
       </c>
       <c r="B5" t="n">
-        <v>206.018645793373</v>
+        <v>213.882978995755</v>
       </c>
       <c r="C5" t="n">
         <v>2.12634831254182</v>
       </c>
       <c r="D5" t="n">
-        <v>96.8884752221518</v>
+        <v>100.586991197167</v>
       </c>
     </row>
     <row r="6">
@@ -4989,13 +4989,13 @@
         <v>294</v>
       </c>
       <c r="B6" t="n">
-        <v>359.023045225907</v>
+        <v>358.763858931642</v>
       </c>
       <c r="C6" t="n">
         <v>3.72042418761232</v>
       </c>
       <c r="D6" t="n">
-        <v>96.5005674410259</v>
+        <v>96.4309016499241</v>
       </c>
     </row>
     <row r="7">
@@ -5031,13 +5031,13 @@
         <v>297</v>
       </c>
       <c r="B9" t="n">
-        <v>414.308291331511</v>
+        <v>412.05900756891</v>
       </c>
       <c r="C9" t="n">
         <v>4.12715381328589</v>
       </c>
       <c r="D9" t="n">
-        <v>100.385958477679</v>
+        <v>99.8409621280491</v>
       </c>
     </row>
     <row r="10">
@@ -5059,13 +5059,13 @@
         <v>299</v>
       </c>
       <c r="B11" t="n">
-        <v>929.130215886885</v>
+        <v>940.130180869656</v>
       </c>
       <c r="C11" t="n">
         <v>9.38482760423656</v>
       </c>
       <c r="D11" t="n">
-        <v>99.0034399212034</v>
+        <v>100.175540832019</v>
       </c>
     </row>
     <row r="12">
@@ -5073,13 +5073,13 @@
         <v>300</v>
       </c>
       <c r="B12" t="n">
-        <v>324.600122832818</v>
+        <v>347.498276288447</v>
       </c>
       <c r="C12" t="n">
         <v>3.22767911930381</v>
       </c>
       <c r="D12" t="n">
-        <v>100.567655840222</v>
+        <v>107.661964973581</v>
       </c>
     </row>
     <row r="13">
@@ -5087,13 +5087,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>520.786276730393</v>
+        <v>561.773202482361</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>92.513103638783</v>
+        <v>99.7940706675858</v>
       </c>
     </row>
     <row r="14">
@@ -5101,13 +5101,13 @@
         <v>302</v>
       </c>
       <c r="B14" t="n">
-        <v>487.774022147763</v>
+        <v>489.595134056976</v>
       </c>
       <c r="C14" t="n">
         <v>4.82560808866417</v>
       </c>
       <c r="D14" t="n">
-        <v>101.08032255947</v>
+        <v>101.457707518164</v>
       </c>
     </row>
     <row r="15">
@@ -5129,13 +5129,13 @@
         <v>304</v>
       </c>
       <c r="B16" t="n">
-        <v>279.190524684245</v>
+        <v>279.160031022715</v>
       </c>
       <c r="C16" t="n">
         <v>2.80965645935818</v>
       </c>
       <c r="D16" t="n">
-        <v>99.3682070113375</v>
+        <v>99.3573538476247</v>
       </c>
     </row>
     <row r="17">
@@ -5199,13 +5199,13 @@
         <v>309</v>
       </c>
       <c r="B21" t="n">
-        <v>199.799442565968</v>
+        <v>199.791535151327</v>
       </c>
       <c r="C21" t="n">
         <v>1.99907507272891</v>
       </c>
       <c r="D21" t="n">
-        <v>99.9459426469789</v>
+        <v>99.9419871103666</v>
       </c>
     </row>
   </sheetData>
@@ -5235,7 +5235,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>99.808810330865</v>
+        <v>100.317137407237</v>
       </c>
     </row>
   </sheetData>
@@ -5397,6 +5397,61 @@
         <v>340</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5418,66 +5473,11 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
         <v>353</v>
       </c>
     </row>

--- a/ind_JUNIO.xlsx
+++ b/ind_JUNIO.xlsx
@@ -1011,6 +1011,42 @@
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">C17091107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10801104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10801102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10801105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10711102</t>
   </si>
   <si>
@@ -1020,54 +1056,24 @@
     <t xml:space="preserve">C18111102</t>
   </si>
   <si>
-    <t xml:space="preserve">C17091107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23921204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951101</t>
-  </si>
-  <si>
     <t xml:space="preserve">C24201101</t>
   </si>
   <si>
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
+    <t xml:space="preserve">C30911101</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10201101</t>
   </si>
   <si>
     <t xml:space="preserve">C10201102</t>
   </si>
   <si>
-    <t xml:space="preserve">C10801104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10801102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10801105</t>
-  </si>
-  <si>
     <t xml:space="preserve">C10401202</t>
   </si>
   <si>
-    <t xml:space="preserve">C10791111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791103</t>
-  </si>
-  <si>
     <t xml:space="preserve">C13111101</t>
   </si>
   <si>
@@ -1075,12 +1081,6 @@
   </si>
   <si>
     <t xml:space="preserve">C25121101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30911101</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>108.598559799132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1473,7 +1473,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>94.6574559767331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1521,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>96.1483441268162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1529,7 +1529,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>99.2439659629222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1593,7 +1593,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1705,7 +1705,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>100.210249082241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1841,7 +1841,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>106.984855737532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1921,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2017,7 +2017,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2073,7 +2073,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2089,7 +2089,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2097,7 +2097,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>99.7487209184528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2245,13 +2245,13 @@
         <v>101</v>
       </c>
       <c r="B6" t="n">
-        <v>66.5917456282206</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D6" t="n">
-        <v>101.59691080504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2273,13 +2273,13 @@
         <v>103</v>
       </c>
       <c r="B8" t="n">
-        <v>448.427610583375</v>
+        <v>335.317804889145</v>
       </c>
       <c r="C8" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D8" t="n">
-        <v>103.112559867596</v>
+        <v>77.1038098798651</v>
       </c>
     </row>
     <row r="9">
@@ -2357,13 +2357,13 @@
         <v>109</v>
       </c>
       <c r="B14" t="n">
-        <v>311.486722171267</v>
+        <v>72.5780418996826</v>
       </c>
       <c r="C14" t="n">
         <v>3.11173572411807</v>
       </c>
       <c r="D14" t="n">
-        <v>100.100635075477</v>
+        <v>23.3239736064838</v>
       </c>
     </row>
     <row r="15">
@@ -2525,13 +2525,13 @@
         <v>121</v>
       </c>
       <c r="B26" t="n">
-        <v>18.7099105363246</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D26" t="n">
-        <v>100.210249082241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2735,13 +2735,13 @@
         <v>136</v>
       </c>
       <c r="B41" t="n">
-        <v>48.2315657839943</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0.450826104793016</v>
       </c>
       <c r="D41" t="n">
-        <v>106.984855737532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2875,13 +2875,13 @@
         <v>146</v>
       </c>
       <c r="B51" t="n">
-        <v>68.9982233799247</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D51" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3015,13 +3015,13 @@
         <v>156</v>
       </c>
       <c r="B61" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3113,13 +3113,13 @@
         <v>163</v>
       </c>
       <c r="B68" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3141,13 +3141,13 @@
         <v>165</v>
       </c>
       <c r="B70" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3155,13 +3155,13 @@
         <v>166</v>
       </c>
       <c r="B71" t="n">
-        <v>248.255357293093</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D71" t="n">
-        <v>99.7487209184528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3309,13 +3309,13 @@
         <v>176</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5917456282206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.59691080504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3337,13 +3337,13 @@
         <v>178</v>
       </c>
       <c r="B5" t="n">
-        <v>448.427610583375</v>
+        <v>335.317804889145</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>103.112559867596</v>
+        <v>77.1038098798651</v>
       </c>
     </row>
     <row r="6">
@@ -3393,13 +3393,13 @@
         <v>182</v>
       </c>
       <c r="B9" t="n">
-        <v>555.076441709947</v>
+        <v>316.167761438363</v>
       </c>
       <c r="C9" t="n">
         <v>5.42590686329924</v>
       </c>
       <c r="D9" t="n">
-        <v>102.301137062355</v>
+        <v>58.2700310572814</v>
       </c>
     </row>
     <row r="10">
@@ -3547,13 +3547,13 @@
         <v>193</v>
       </c>
       <c r="B20" t="n">
-        <v>18.7099105363246</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D20" t="n">
-        <v>100.210249082241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3757,13 +3757,13 @@
         <v>208</v>
       </c>
       <c r="B35" t="n">
-        <v>48.2315657839943</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0.450826104793016</v>
       </c>
       <c r="D35" t="n">
-        <v>106.984855737532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3883,13 +3883,13 @@
         <v>217</v>
       </c>
       <c r="B44" t="n">
-        <v>68.9982233799247</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0.726189428492877</v>
       </c>
       <c r="D44" t="n">
-        <v>95.0140840291804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4023,13 +4023,13 @@
         <v>227</v>
       </c>
       <c r="B54" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4121,13 +4121,13 @@
         <v>234</v>
       </c>
       <c r="B61" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4149,13 +4149,13 @@
         <v>236</v>
       </c>
       <c r="B63" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4163,13 +4163,13 @@
         <v>237</v>
       </c>
       <c r="B64" t="n">
-        <v>248.255357293093</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D64" t="n">
-        <v>99.7487209184528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4317,13 +4317,13 @@
         <v>247</v>
       </c>
       <c r="B3" t="n">
-        <v>66.5917456282206</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.655450496482192</v>
       </c>
       <c r="D3" t="n">
-        <v>101.59691080504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4345,13 +4345,13 @@
         <v>249</v>
       </c>
       <c r="B5" t="n">
-        <v>448.427610583375</v>
+        <v>335.317804889145</v>
       </c>
       <c r="C5" t="n">
         <v>4.34891356745667</v>
       </c>
       <c r="D5" t="n">
-        <v>103.112559867596</v>
+        <v>77.1038098798651</v>
       </c>
     </row>
     <row r="6">
@@ -4387,13 +4387,13 @@
         <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>1298.89880055732</v>
+        <v>1059.99012028573</v>
       </c>
       <c r="C8" t="n">
         <v>12.8223860199456</v>
       </c>
       <c r="D8" t="n">
-        <v>101.299305646924</v>
+        <v>82.6671509215903</v>
       </c>
     </row>
     <row r="9">
@@ -4429,13 +4429,13 @@
         <v>255</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7099105363246</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D11" t="n">
-        <v>100.210249082241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4555,13 +4555,13 @@
         <v>264</v>
       </c>
       <c r="B20" t="n">
-        <v>48.2315657839943</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0.450826104793016</v>
       </c>
       <c r="D20" t="n">
-        <v>106.984855737532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4611,13 +4611,13 @@
         <v>268</v>
       </c>
       <c r="B24" t="n">
-        <v>84.5790477953823</v>
+        <v>15.5808244154576</v>
       </c>
       <c r="C24" t="n">
         <v>0.879055435751663</v>
       </c>
       <c r="D24" t="n">
-        <v>96.2158293498981</v>
+        <v>17.7245072173802</v>
       </c>
     </row>
     <row r="25">
@@ -4681,13 +4681,13 @@
         <v>273</v>
       </c>
       <c r="B29" t="n">
-        <v>18.7038746694366</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0.187038746694366</v>
       </c>
       <c r="D29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4765,13 +4765,13 @@
         <v>279</v>
       </c>
       <c r="B35" t="n">
-        <v>48.7254188696169</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0.487254188696169</v>
       </c>
       <c r="D35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4793,13 +4793,13 @@
         <v>281</v>
       </c>
       <c r="B37" t="n">
-        <v>62.4443082078958</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0.624443082078958</v>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4807,13 +4807,13 @@
         <v>282</v>
       </c>
       <c r="B38" t="n">
-        <v>248.255357293093</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>2.48880742537088</v>
       </c>
       <c r="D38" t="n">
-        <v>99.7487209184528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4933,13 +4933,13 @@
         <v>290</v>
       </c>
       <c r="B2" t="n">
-        <v>3375.51737984287</v>
+        <v>2956.90714824884</v>
       </c>
       <c r="C2" t="n">
         <v>33.4384946709579</v>
       </c>
       <c r="D2" t="n">
-        <v>100.947049592355</v>
+        <v>88.4282374953014</v>
       </c>
     </row>
     <row r="3">
@@ -4961,13 +4961,13 @@
         <v>292</v>
       </c>
       <c r="B4" t="n">
-        <v>18.7099105363246</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0.186706556541633</v>
       </c>
       <c r="D4" t="n">
-        <v>100.210249082241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5045,13 +5045,13 @@
         <v>298</v>
       </c>
       <c r="B10" t="n">
-        <v>48.2315657839943</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0.450826104793016</v>
       </c>
       <c r="D10" t="n">
-        <v>106.984855737532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5087,13 +5087,13 @@
         <v>301</v>
       </c>
       <c r="B13" t="n">
-        <v>561.773202482361</v>
+        <v>492.774979102437</v>
       </c>
       <c r="C13" t="n">
         <v>5.62932445509342</v>
       </c>
       <c r="D13" t="n">
-        <v>99.7940706675858</v>
+        <v>87.5371428727249</v>
       </c>
     </row>
     <row r="14">
@@ -5115,13 +5115,13 @@
         <v>303</v>
       </c>
       <c r="B15" t="n">
-        <v>654.308073583602</v>
+        <v>635.604198914166</v>
       </c>
       <c r="C15" t="n">
         <v>6.853131317553</v>
       </c>
       <c r="D15" t="n">
-        <v>95.4757822760109</v>
+        <v>92.7465372341816</v>
       </c>
     </row>
     <row r="16">
@@ -5157,13 +5157,13 @@
         <v>306</v>
       </c>
       <c r="B18" t="n">
-        <v>114.503060321211</v>
+        <v>65.7776414515946</v>
       </c>
       <c r="C18" t="n">
         <v>1.16952660241937</v>
       </c>
       <c r="D18" t="n">
-        <v>97.9054773823375</v>
+        <v>56.2429630206975</v>
       </c>
     </row>
     <row r="19">
@@ -5171,13 +5171,13 @@
         <v>307</v>
       </c>
       <c r="B19" t="n">
-        <v>310.699665500989</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>3.11325050744984</v>
       </c>
       <c r="D19" t="n">
-        <v>99.7991214511975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5235,7 +5235,7 @@
         <v>311</v>
       </c>
       <c r="B2" t="n">
-        <v>100.317137407237</v>
+        <v>90.5374390480524</v>
       </c>
     </row>
   </sheetData>
@@ -5397,61 +5397,6 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>351</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5473,11 +5418,66 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>353</v>
       </c>
     </row>
